--- a/Code/Results/Cases/Case_1_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_246/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.10992234099555</v>
+        <v>18.29285891475653</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.44904454277113</v>
+        <v>3.711001506839609</v>
       </c>
       <c r="E2">
-        <v>43.41879097547979</v>
+        <v>31.41613300032321</v>
       </c>
       <c r="F2">
-        <v>16.90714928632649</v>
+        <v>19.87892122332325</v>
       </c>
       <c r="G2">
-        <v>2.029780989605821</v>
+        <v>3.592876019060736</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.37193563096413</v>
+        <v>10.63382016981005</v>
       </c>
       <c r="M2">
-        <v>16.91621694941518</v>
+        <v>16.77267393523984</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.22603475579155</v>
+        <v>17.59287449200634</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.91829239074487</v>
+        <v>17.91002781494124</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.318550479575012</v>
+        <v>3.675709904258966</v>
       </c>
       <c r="E3">
-        <v>40.96848705895415</v>
+        <v>30.37976779512441</v>
       </c>
       <c r="F3">
-        <v>16.0583885270782</v>
+        <v>19.89391527156841</v>
       </c>
       <c r="G3">
-        <v>2.03705241705892</v>
+        <v>3.59552839431446</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.5115988637661</v>
+        <v>10.30747130756335</v>
       </c>
       <c r="M3">
-        <v>15.97055276931082</v>
+        <v>16.48511143800179</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.82334764324817</v>
+        <v>17.68772816083751</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.15361432554855</v>
+        <v>17.67178514353304</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.236417293896443</v>
+        <v>3.654094645468905</v>
       </c>
       <c r="E4">
-        <v>39.39821719369002</v>
+        <v>29.72890984911355</v>
       </c>
       <c r="F4">
-        <v>15.5523289366721</v>
+        <v>19.9142119897617</v>
       </c>
       <c r="G4">
-        <v>2.041630287493391</v>
+        <v>3.597240754916152</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.95521551934061</v>
+        <v>10.10108660454627</v>
       </c>
       <c r="M4">
-        <v>15.36475263134062</v>
+        <v>16.30622362956135</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.6023219028484</v>
+        <v>17.75462494755867</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.83382749256132</v>
+        <v>17.57401109913511</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.202476324833901</v>
+        <v>3.645306830164832</v>
       </c>
       <c r="E5">
-        <v>38.74222476726155</v>
+        <v>29.46044376186858</v>
       </c>
       <c r="F5">
-        <v>15.35021445134398</v>
+        <v>19.92525137699649</v>
       </c>
       <c r="G5">
-        <v>2.043525572131688</v>
+        <v>3.597959698021927</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.72140196303689</v>
+        <v>10.01556898918037</v>
       </c>
       <c r="M5">
-        <v>15.11168125988092</v>
+        <v>16.23281112785178</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.51879448739357</v>
+        <v>17.784040142523</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.7802380703645</v>
+        <v>17.55773758621723</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.19681310765806</v>
+        <v>3.643849067622832</v>
       </c>
       <c r="E6">
-        <v>38.6323410375571</v>
+        <v>29.41568259000698</v>
       </c>
       <c r="F6">
-        <v>15.31691124883264</v>
+        <v>19.92725099180656</v>
       </c>
       <c r="G6">
-        <v>2.043842117005894</v>
+        <v>3.598080357037946</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.68214969620298</v>
+        <v>10.00128640852304</v>
       </c>
       <c r="M6">
-        <v>15.0692886937095</v>
+        <v>16.22059205836518</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.50531743681324</v>
+        <v>17.7890539527958</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.14933446363073</v>
+        <v>17.67046916398255</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.235961412182563</v>
+        <v>3.653976037367136</v>
       </c>
       <c r="E7">
-        <v>39.38943474088253</v>
+        <v>29.72530174805833</v>
       </c>
       <c r="F7">
-        <v>15.54958608142933</v>
+        <v>19.91434969172778</v>
       </c>
       <c r="G7">
-        <v>2.041655725781368</v>
+        <v>3.597250365134844</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.95209090526765</v>
+        <v>10.09993887717696</v>
       </c>
       <c r="M7">
-        <v>15.36136454583277</v>
+        <v>16.30523555140169</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.60116903944976</v>
+        <v>17.75501295911342</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.70596199294124</v>
+        <v>18.16158525333218</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.404486100495307</v>
+        <v>3.698825982275109</v>
       </c>
       <c r="E8">
-        <v>42.58780778265027</v>
+        <v>31.06204766964069</v>
       </c>
       <c r="F8">
-        <v>16.61154840264353</v>
+        <v>19.88177818131426</v>
       </c>
       <c r="G8">
-        <v>2.032265498930909</v>
+        <v>3.5937732107276</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.08112030449251</v>
+        <v>10.52259638158697</v>
       </c>
       <c r="M8">
-        <v>16.5954357910968</v>
+        <v>16.67404591697704</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.08172849440879</v>
+        <v>17.62377012219742</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.49325459948367</v>
+        <v>19.09471769727332</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.717793965946707</v>
+        <v>3.786896867487498</v>
       </c>
       <c r="E9">
-        <v>48.32412963476082</v>
+        <v>33.55169034791422</v>
       </c>
       <c r="F9">
-        <v>18.90076425690053</v>
+        <v>19.90663366700422</v>
       </c>
       <c r="G9">
-        <v>2.014685571145747</v>
+        <v>3.587616060943575</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.07313541506998</v>
+        <v>11.29999107936066</v>
       </c>
       <c r="M9">
-        <v>18.81229541332645</v>
+        <v>17.37588573200204</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.31052478584279</v>
+        <v>17.43605606307634</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.37769273762008</v>
+        <v>19.75612107550752</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.936262986259242</v>
+        <v>3.851266720933376</v>
       </c>
       <c r="E10">
-        <v>52.20044066200192</v>
+        <v>35.28101464884764</v>
       </c>
       <c r="F10">
-        <v>20.91277799932448</v>
+        <v>19.97971164775285</v>
       </c>
       <c r="G10">
-        <v>2.002181196131669</v>
+        <v>3.583491045095374</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.40401227183266</v>
+        <v>11.8352921558963</v>
       </c>
       <c r="M10">
-        <v>20.44442358067299</v>
+        <v>17.87469431156004</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.84863170923772</v>
+        <v>17.34187175548367</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.19980126655331</v>
+        <v>20.05062356980073</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.06557606707866</v>
+        <v>3.880391730636763</v>
       </c>
       <c r="E11">
-        <v>53.8896405427629</v>
+        <v>36.04261700474061</v>
       </c>
       <c r="F11">
-        <v>21.81622726454605</v>
+        <v>20.02492859268647</v>
       </c>
       <c r="G11">
-        <v>1.996558035250652</v>
+        <v>3.581700035747637</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.98148170278266</v>
+        <v>12.07023511799338</v>
       </c>
       <c r="M11">
-        <v>21.17909170265755</v>
+        <v>18.09721313902012</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.54055482903908</v>
+        <v>17.30877134085245</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.50611975064403</v>
+        <v>20.16114049524623</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.116418189781447</v>
+        <v>3.891390958897044</v>
       </c>
       <c r="E12">
-        <v>54.51865090289727</v>
+        <v>36.32716652254089</v>
       </c>
       <c r="F12">
-        <v>22.15673983360488</v>
+        <v>20.04377197821304</v>
       </c>
       <c r="G12">
-        <v>1.994435845384149</v>
+        <v>3.581034043394305</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.19621586553321</v>
+        <v>12.15791304708702</v>
       </c>
       <c r="M12">
-        <v>21.45218656536106</v>
+        <v>18.18078533453217</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.80156345729495</v>
+        <v>17.29765727701068</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.44036963753256</v>
+        <v>20.1373847263835</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.105510051260973</v>
+        <v>3.88902351558862</v>
       </c>
       <c r="E13">
-        <v>54.38365527419867</v>
+        <v>36.26605866503191</v>
       </c>
       <c r="F13">
-        <v>22.08347348376614</v>
+        <v>20.03963725116539</v>
       </c>
       <c r="G13">
-        <v>1.9948926148975</v>
+        <v>3.581176934177416</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.1501429287421</v>
+        <v>12.13908825340145</v>
       </c>
       <c r="M13">
-        <v>21.39359590669797</v>
+        <v>18.16281820268772</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.74539312346326</v>
+        <v>17.29998742878302</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.22510199533732</v>
+        <v>20.05973648497879</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.069777670982478</v>
+        <v>3.881297281237023</v>
       </c>
       <c r="E14">
-        <v>53.9416028375278</v>
+        <v>36.06610558971624</v>
       </c>
       <c r="F14">
-        <v>21.84427280630493</v>
+        <v>20.02644438499297</v>
       </c>
       <c r="G14">
-        <v>1.996383310864214</v>
+        <v>3.581644999557491</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.99922650536754</v>
+        <v>12.07747459233991</v>
       </c>
       <c r="M14">
-        <v>21.20166104659617</v>
+        <v>18.10410284779788</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.56204755719385</v>
+        <v>17.30782840944815</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.09259578035299</v>
+        <v>20.01204132740975</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.04776826071519</v>
+        <v>3.87656065058788</v>
       </c>
       <c r="E15">
-        <v>53.66944693365219</v>
+        <v>35.94311998938817</v>
       </c>
       <c r="F15">
-        <v>21.69755054382395</v>
+        <v>20.01858735651717</v>
       </c>
       <c r="G15">
-        <v>1.997297271382147</v>
+        <v>3.58193329303047</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.90627512662152</v>
+        <v>12.03956486512339</v>
       </c>
       <c r="M15">
-        <v>21.0834338365581</v>
+        <v>18.06804632284555</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.44961597516294</v>
+        <v>17.31281675245303</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.32326326031717</v>
+        <v>19.73673870933031</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.929889398479307</v>
+        <v>3.849359553492927</v>
       </c>
       <c r="E16">
-        <v>52.08855483103859</v>
+        <v>35.23071576955347</v>
       </c>
       <c r="F16">
-        <v>20.85350428165828</v>
+        <v>19.97699755745581</v>
       </c>
       <c r="G16">
-        <v>2.002549811663351</v>
+        <v>3.583609806041425</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.36571727311642</v>
+        <v>11.81976057505326</v>
       </c>
       <c r="M16">
-        <v>20.39568989774016</v>
+        <v>17.86005866402114</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.80326480302653</v>
+        <v>17.34423269081632</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.8423362099838</v>
+        <v>19.56615234578071</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.873729990870731</v>
+        <v>3.832627155740714</v>
       </c>
       <c r="E17">
-        <v>51.09972441854619</v>
+        <v>34.78707114361333</v>
       </c>
       <c r="F17">
-        <v>20.33272858566399</v>
+        <v>19.95455085058497</v>
       </c>
       <c r="G17">
-        <v>2.005787270374304</v>
+        <v>3.584660137701982</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.02699559370147</v>
+        <v>11.68267999311321</v>
       </c>
       <c r="M17">
-        <v>19.96455496840244</v>
+        <v>17.73129690307066</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.40482158066404</v>
+        <v>17.3660151338374</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.5624079340689</v>
+        <v>19.46744059489957</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.8411747764378</v>
+        <v>3.822988751922844</v>
       </c>
       <c r="E18">
-        <v>50.52399104768441</v>
+        <v>34.52955101278329</v>
       </c>
       <c r="F18">
-        <v>20.03206915785422</v>
+        <v>19.9427674272231</v>
       </c>
       <c r="G18">
-        <v>2.007655645801638</v>
+        <v>3.585272310620566</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.82953537706022</v>
+        <v>11.60303140106847</v>
       </c>
       <c r="M18">
-        <v>19.71314994082397</v>
+        <v>17.65682652071764</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.17490653542007</v>
+        <v>17.37945995055078</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46705894624789</v>
+        <v>19.43391909455731</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.830108841542695</v>
+        <v>3.819723106856336</v>
       </c>
       <c r="E19">
-        <v>50.32785873429708</v>
+        <v>34.44196395114501</v>
       </c>
       <c r="F19">
-        <v>19.93007627188319</v>
+        <v>19.93897134430867</v>
       </c>
       <c r="G19">
-        <v>2.008289386471924</v>
+        <v>3.585480966514668</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.76222370597111</v>
+        <v>11.57592763082783</v>
       </c>
       <c r="M19">
-        <v>19.6274364276096</v>
+        <v>17.63154356836083</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.09693144793459</v>
+        <v>17.38416887873576</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.89387414538538</v>
+        <v>19.58437379346802</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.879734590018897</v>
+        <v>3.834409887862217</v>
       </c>
       <c r="E20">
-        <v>51.20571006373906</v>
+        <v>34.83454270864097</v>
       </c>
       <c r="F20">
-        <v>20.38828178016004</v>
+        <v>19.95682366050356</v>
       </c>
       <c r="G20">
-        <v>2.005442003104697</v>
+        <v>3.584547495459156</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.06332542355938</v>
+        <v>11.69735605059014</v>
       </c>
       <c r="M20">
-        <v>20.01080394925418</v>
+        <v>17.74504668832571</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.44731259983392</v>
+        <v>17.3636013969979</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.28846634670172</v>
+        <v>20.08257159835923</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.080298579571277</v>
+        <v>3.883567528306816</v>
       </c>
       <c r="E21">
-        <v>54.07173309926071</v>
+        <v>36.12494303976107</v>
       </c>
       <c r="F21">
-        <v>21.91457429132818</v>
+        <v>20.03027277959296</v>
       </c>
       <c r="G21">
-        <v>1.995945281035577</v>
+        <v>3.58150718619388</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.04366059325841</v>
+        <v>12.09560745249786</v>
       </c>
       <c r="M21">
-        <v>21.25817461378205</v>
+        <v>18.12136817700009</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.61592682305985</v>
+        <v>17.3054866297196</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.17083476050082</v>
+        <v>20.40227942883905</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.226551900980128</v>
+        <v>3.915518078645882</v>
       </c>
       <c r="E22">
-        <v>55.88279657458911</v>
+        <v>36.94574311718196</v>
       </c>
       <c r="F22">
-        <v>22.90283476745967</v>
+        <v>20.08830213858106</v>
       </c>
       <c r="G22">
-        <v>1.989779287539838</v>
+        <v>3.579591387889319</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.66143955901185</v>
+        <v>12.34834717894843</v>
       </c>
       <c r="M22">
-        <v>22.04369195562622</v>
+        <v>18.36326400050141</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.37389616079482</v>
+        <v>17.27579206417633</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.70253395390858</v>
+        <v>20.23221215987532</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.148988215518632</v>
+        <v>3.898483980648014</v>
       </c>
       <c r="E23">
-        <v>54.92185692870142</v>
+        <v>36.50980417540526</v>
       </c>
       <c r="F23">
-        <v>22.37618044636647</v>
+        <v>20.05641483831119</v>
       </c>
       <c r="G23">
-        <v>1.993067256441762</v>
+        <v>3.580607391314766</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.33378826645318</v>
+        <v>12.21416259284427</v>
       </c>
       <c r="M23">
-        <v>21.62712377778773</v>
+        <v>18.23454915793447</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.96983424698626</v>
+        <v>17.29087639530636</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.87058455391688</v>
+        <v>19.57613786161398</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.877020746234462</v>
+        <v>3.833603972413276</v>
       </c>
       <c r="E24">
-        <v>51.15781650958134</v>
+        <v>34.81308846661614</v>
       </c>
       <c r="F24">
-        <v>20.36317010753948</v>
+        <v>19.95579262965819</v>
       </c>
       <c r="G24">
-        <v>2.005598076105968</v>
+        <v>3.584598395084276</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.04690919985249</v>
+        <v>11.69072361430616</v>
       </c>
       <c r="M24">
-        <v>19.98990581945251</v>
+        <v>17.73883178731289</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.42810504890758</v>
+        <v>17.3646897774189</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.76791678935894</v>
+        <v>18.84611854726164</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.63502311293245</v>
+        <v>3.76310093047399</v>
       </c>
       <c r="E25">
-        <v>46.83117454526329</v>
+        <v>32.89442825646503</v>
       </c>
       <c r="F25">
-        <v>18.19907482866133</v>
+        <v>19.89031989593194</v>
       </c>
       <c r="G25">
-        <v>2.019361597360968</v>
+        <v>3.589211392549477</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.55777937854804</v>
+        <v>11.0956864988069</v>
       </c>
       <c r="M25">
-        <v>18.23468235695895</v>
+        <v>17.1887118311625</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.89887671227763</v>
+        <v>17.47924651002011</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_246/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.29285891475653</v>
+        <v>20.10992234099558</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.711001506839609</v>
+        <v>3.449044542771167</v>
       </c>
       <c r="E2">
-        <v>31.41613300032321</v>
+        <v>43.41879097547967</v>
       </c>
       <c r="F2">
-        <v>19.87892122332325</v>
+        <v>16.90714928632651</v>
       </c>
       <c r="G2">
-        <v>3.592876019060736</v>
+        <v>2.029780989605821</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.63382016981005</v>
+        <v>13.37193563096413</v>
       </c>
       <c r="M2">
-        <v>16.77267393523984</v>
+        <v>16.91621694941517</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.59287449200634</v>
+        <v>12.22603475579156</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.91002781494124</v>
+        <v>18.91829239074491</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.675709904258966</v>
+        <v>3.31855047957488</v>
       </c>
       <c r="E3">
-        <v>30.37976779512441</v>
+        <v>40.96848705895424</v>
       </c>
       <c r="F3">
-        <v>19.89391527156841</v>
+        <v>16.05838852707823</v>
       </c>
       <c r="G3">
-        <v>3.59552839431446</v>
+        <v>2.037052417058787</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.30747130756335</v>
+        <v>12.51159886376611</v>
       </c>
       <c r="M3">
-        <v>16.48511143800179</v>
+        <v>15.97055276931085</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.68772816083751</v>
+        <v>11.82334764324819</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.67178514353304</v>
+        <v>18.15361432554855</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.654094645468905</v>
+        <v>3.236417293896663</v>
       </c>
       <c r="E4">
-        <v>29.72890984911355</v>
+        <v>39.39821719368983</v>
       </c>
       <c r="F4">
-        <v>19.9142119897617</v>
+        <v>15.55232893667208</v>
       </c>
       <c r="G4">
-        <v>3.597240754916152</v>
+        <v>2.041630287493125</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.10108660454627</v>
+        <v>11.95521551934056</v>
       </c>
       <c r="M4">
-        <v>16.30622362956135</v>
+        <v>15.36475263134056</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.75462494755867</v>
+        <v>11.60232190284845</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.57401109913511</v>
+        <v>17.83382749256136</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.645306830164832</v>
+        <v>3.202476324833886</v>
       </c>
       <c r="E5">
-        <v>29.46044376186858</v>
+        <v>38.74222476726143</v>
       </c>
       <c r="F5">
-        <v>19.92525137699649</v>
+        <v>15.35021445134402</v>
       </c>
       <c r="G5">
-        <v>3.597959698021927</v>
+        <v>2.043525572131823</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.01556898918037</v>
+        <v>11.72140196303693</v>
       </c>
       <c r="M5">
-        <v>16.23281112785178</v>
+        <v>15.11168125988093</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.784040142523</v>
+        <v>11.51879448739362</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.55773758621723</v>
+        <v>17.78023807036445</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.643849067622832</v>
+        <v>3.196813107658124</v>
       </c>
       <c r="E6">
-        <v>29.41568259000698</v>
+        <v>38.63234103755694</v>
       </c>
       <c r="F6">
-        <v>19.92725099180656</v>
+        <v>15.3169112488326</v>
       </c>
       <c r="G6">
-        <v>3.598080357037946</v>
+        <v>2.043842117005892</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.00128640852304</v>
+        <v>11.68214969620295</v>
       </c>
       <c r="M6">
-        <v>16.22059205836518</v>
+        <v>15.06928869370947</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.7890539527958</v>
+        <v>11.50531743681325</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.67046916398255</v>
+        <v>18.14933446363082</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.653976037367136</v>
+        <v>3.235961412182735</v>
       </c>
       <c r="E7">
-        <v>29.72530174805833</v>
+        <v>39.38943474088262</v>
       </c>
       <c r="F7">
-        <v>19.91434969172778</v>
+        <v>15.54958608142927</v>
       </c>
       <c r="G7">
-        <v>3.597250365134844</v>
+        <v>2.041655725781234</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.09993887717696</v>
+        <v>11.95209090526766</v>
       </c>
       <c r="M7">
-        <v>16.30523555140169</v>
+        <v>15.36136454583278</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.75501295911342</v>
+        <v>11.60116903944975</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.16158525333218</v>
+        <v>19.70596199294118</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.698825982275109</v>
+        <v>3.404486100495283</v>
       </c>
       <c r="E8">
-        <v>31.06204766964069</v>
+        <v>42.58780778265017</v>
       </c>
       <c r="F8">
-        <v>19.88177818131426</v>
+        <v>16.61154840264357</v>
       </c>
       <c r="G8">
-        <v>3.5937732107276</v>
+        <v>2.032265498930908</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.52259638158697</v>
+        <v>13.0811203044925</v>
       </c>
       <c r="M8">
-        <v>16.67404591697704</v>
+        <v>16.59543579109679</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.62377012219742</v>
+        <v>12.08172849440883</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.09471769727332</v>
+        <v>22.49325459948363</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.786896867487498</v>
+        <v>3.717793965946796</v>
       </c>
       <c r="E9">
-        <v>33.55169034791422</v>
+        <v>48.32412963476057</v>
       </c>
       <c r="F9">
-        <v>19.90663366700422</v>
+        <v>18.90076425690053</v>
       </c>
       <c r="G9">
-        <v>3.587616060943575</v>
+        <v>2.014685571145749</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.29999107936066</v>
+        <v>15.07313541506993</v>
       </c>
       <c r="M9">
-        <v>17.37588573200204</v>
+        <v>18.81229541332637</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.43605606307634</v>
+        <v>13.31052478584277</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.75612107550752</v>
+        <v>24.37769273762011</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.851266720933376</v>
+        <v>3.936262986259205</v>
       </c>
       <c r="E10">
-        <v>35.28101464884764</v>
+        <v>52.20044066200204</v>
       </c>
       <c r="F10">
-        <v>19.97971164775285</v>
+        <v>20.91277799932444</v>
       </c>
       <c r="G10">
-        <v>3.583491045095374</v>
+        <v>2.002181196131803</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.8352921558963</v>
+        <v>16.40401227183274</v>
       </c>
       <c r="M10">
-        <v>17.87469431156004</v>
+        <v>20.44442358067303</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.34187175548367</v>
+        <v>14.8486317092377</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.05062356980073</v>
+        <v>25.19980126655328</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.880391730636763</v>
+        <v>4.065576067078643</v>
       </c>
       <c r="E11">
-        <v>36.04261700474061</v>
+        <v>53.88964054276286</v>
       </c>
       <c r="F11">
-        <v>20.02492859268647</v>
+        <v>21.81622726454596</v>
       </c>
       <c r="G11">
-        <v>3.581700035747637</v>
+        <v>1.996558035250784</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.07023511799338</v>
+        <v>16.98148170278263</v>
       </c>
       <c r="M11">
-        <v>18.09721313902012</v>
+        <v>21.17909170265751</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.30877134085245</v>
+        <v>15.54055482903899</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.16114049524623</v>
+        <v>25.506119750644</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.891390958897044</v>
+        <v>4.11641818978142</v>
       </c>
       <c r="E12">
-        <v>36.32716652254089</v>
+        <v>54.51865090289716</v>
       </c>
       <c r="F12">
-        <v>20.04377197821304</v>
+        <v>22.15673983360501</v>
       </c>
       <c r="G12">
-        <v>3.581034043394305</v>
+        <v>1.994435845384015</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.15791304708702</v>
+        <v>17.19621586553323</v>
       </c>
       <c r="M12">
-        <v>18.18078533453217</v>
+        <v>21.45218656536105</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.29765727701068</v>
+        <v>15.80156345729502</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.1373847263835</v>
+        <v>25.44036963753253</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.88902351558862</v>
+        <v>4.105510051260943</v>
       </c>
       <c r="E13">
-        <v>36.26605866503191</v>
+        <v>54.38365527419823</v>
       </c>
       <c r="F13">
-        <v>20.03963725116539</v>
+        <v>22.08347348376626</v>
       </c>
       <c r="G13">
-        <v>3.581176934177416</v>
+        <v>1.994892614897634</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.13908825340145</v>
+        <v>17.15014292874203</v>
       </c>
       <c r="M13">
-        <v>18.16281820268772</v>
+        <v>21.39359590669791</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.29998742878302</v>
+        <v>15.7453931234634</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.05973648497879</v>
+        <v>25.22510199533731</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.881297281237023</v>
+        <v>4.069777670982499</v>
       </c>
       <c r="E14">
-        <v>36.06610558971624</v>
+        <v>53.94160283752795</v>
       </c>
       <c r="F14">
-        <v>20.02644438499297</v>
+        <v>21.8442728063049</v>
       </c>
       <c r="G14">
-        <v>3.581644999557491</v>
+        <v>1.996383310864079</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.07747459233991</v>
+        <v>16.9992265053676</v>
       </c>
       <c r="M14">
-        <v>18.10410284779788</v>
+        <v>21.20166104659619</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.30782840944815</v>
+        <v>15.56204755719385</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.01204132740975</v>
+        <v>25.09259578035302</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.87656065058788</v>
+        <v>4.04776826071519</v>
       </c>
       <c r="E15">
-        <v>35.94311998938817</v>
+        <v>53.66944693365211</v>
       </c>
       <c r="F15">
-        <v>20.01858735651717</v>
+        <v>21.69755054382388</v>
       </c>
       <c r="G15">
-        <v>3.58193329303047</v>
+        <v>1.997297271382146</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.03956486512339</v>
+        <v>16.90627512662152</v>
       </c>
       <c r="M15">
-        <v>18.06804632284555</v>
+        <v>21.08343383655809</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.31281675245303</v>
+        <v>15.44961597516288</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.73673870933031</v>
+        <v>24.32326326031716</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.849359553492927</v>
+        <v>3.929889398479321</v>
       </c>
       <c r="E16">
-        <v>35.23071576955347</v>
+        <v>52.08855483103865</v>
       </c>
       <c r="F16">
-        <v>19.97699755745581</v>
+        <v>20.85350428165823</v>
       </c>
       <c r="G16">
-        <v>3.583609806041425</v>
+        <v>2.002549811663219</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.81976057505326</v>
+        <v>16.36571727311639</v>
       </c>
       <c r="M16">
-        <v>17.86005866402114</v>
+        <v>20.39568989774016</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.34423269081632</v>
+        <v>14.80326480302646</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.56615234578071</v>
+        <v>23.8423362099838</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.832627155740714</v>
+        <v>3.873729990870783</v>
       </c>
       <c r="E17">
-        <v>34.78707114361333</v>
+        <v>51.09972441854613</v>
       </c>
       <c r="F17">
-        <v>19.95455085058497</v>
+        <v>20.33272858566403</v>
       </c>
       <c r="G17">
-        <v>3.584660137701982</v>
+        <v>2.005787270374437</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.68267999311321</v>
+        <v>16.02699559370149</v>
       </c>
       <c r="M17">
-        <v>17.73129690307066</v>
+        <v>19.96455496840244</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.3660151338374</v>
+        <v>14.40482158066409</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.46744059489957</v>
+        <v>23.56240793406883</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.822988751922844</v>
+        <v>3.841174776437831</v>
       </c>
       <c r="E18">
-        <v>34.52955101278329</v>
+        <v>50.52399104768441</v>
       </c>
       <c r="F18">
-        <v>19.9427674272231</v>
+        <v>20.03206915785419</v>
       </c>
       <c r="G18">
-        <v>3.585272310620566</v>
+        <v>2.007655645801637</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.60303140106847</v>
+        <v>15.82953537706022</v>
       </c>
       <c r="M18">
-        <v>17.65682652071764</v>
+        <v>19.71314994082399</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.37945995055078</v>
+        <v>14.17490653542001</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.43391909455731</v>
+        <v>23.46705894624793</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.819723106856336</v>
+        <v>3.830108841542672</v>
       </c>
       <c r="E19">
-        <v>34.44196395114501</v>
+        <v>50.32785873429722</v>
       </c>
       <c r="F19">
-        <v>19.93897134430867</v>
+        <v>19.93007627188313</v>
       </c>
       <c r="G19">
-        <v>3.585480966514668</v>
+        <v>2.008289386471792</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.57592763082783</v>
+        <v>15.76222370597111</v>
       </c>
       <c r="M19">
-        <v>17.63154356836083</v>
+        <v>19.62743642760962</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.38416887873576</v>
+        <v>14.09693144793453</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.58437379346802</v>
+        <v>23.89387414538544</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.834409887862217</v>
+        <v>3.879734590018949</v>
       </c>
       <c r="E20">
-        <v>34.83454270864097</v>
+        <v>51.20571006373936</v>
       </c>
       <c r="F20">
-        <v>19.95682366050356</v>
+        <v>20.38828178016004</v>
       </c>
       <c r="G20">
-        <v>3.584547495459156</v>
+        <v>2.005442003104696</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.69735605059014</v>
+        <v>16.06332542355944</v>
       </c>
       <c r="M20">
-        <v>17.74504668832571</v>
+        <v>20.01080394925421</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.3636013969979</v>
+        <v>14.44731259983391</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.08257159835923</v>
+        <v>25.28846634670173</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.883567528306816</v>
+        <v>4.080298579571225</v>
       </c>
       <c r="E21">
-        <v>36.12494303976107</v>
+        <v>54.07173309926057</v>
       </c>
       <c r="F21">
-        <v>20.03027277959296</v>
+        <v>21.91457429132825</v>
       </c>
       <c r="G21">
-        <v>3.58150718619388</v>
+        <v>1.995945281035443</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.09560745249786</v>
+        <v>17.04366059325838</v>
       </c>
       <c r="M21">
-        <v>18.12136817700009</v>
+        <v>21.25817461378201</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.3054866297196</v>
+        <v>15.61592682305991</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.40227942883905</v>
+        <v>26.17083476050091</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.915518078645882</v>
+        <v>4.226551900980065</v>
       </c>
       <c r="E22">
-        <v>36.94574311718196</v>
+        <v>55.88279657458921</v>
       </c>
       <c r="F22">
-        <v>20.08830213858106</v>
+        <v>22.90283476745978</v>
       </c>
       <c r="G22">
-        <v>3.579591387889319</v>
+        <v>1.989779287539838</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.34834717894843</v>
+        <v>17.66143955901186</v>
       </c>
       <c r="M22">
-        <v>18.36326400050141</v>
+        <v>22.04369195562628</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.27579206417633</v>
+        <v>16.37389616079489</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.23221215987532</v>
+        <v>25.70253395390861</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.898483980648014</v>
+        <v>4.148988215518608</v>
       </c>
       <c r="E23">
-        <v>36.50980417540526</v>
+        <v>54.92185692870153</v>
       </c>
       <c r="F23">
-        <v>20.05641483831119</v>
+        <v>22.37618044636633</v>
       </c>
       <c r="G23">
-        <v>3.580607391314766</v>
+        <v>1.993067256441763</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.21416259284427</v>
+        <v>17.33378826645321</v>
       </c>
       <c r="M23">
-        <v>18.23454915793447</v>
+        <v>21.62712377778778</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.29087639530636</v>
+        <v>15.96983424698614</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.57613786161398</v>
+        <v>23.87058455391694</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.833603972413276</v>
+        <v>3.87702074623441</v>
       </c>
       <c r="E24">
-        <v>34.81308846661614</v>
+        <v>51.1578165095816</v>
       </c>
       <c r="F24">
-        <v>19.95579262965819</v>
+        <v>20.36317010753947</v>
       </c>
       <c r="G24">
-        <v>3.584598395084276</v>
+        <v>2.005598076105967</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.69072361430616</v>
+        <v>16.04690919985253</v>
       </c>
       <c r="M24">
-        <v>17.73883178731289</v>
+        <v>19.98990581945256</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.3646897774189</v>
+        <v>14.42810504890758</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.84611854726164</v>
+        <v>21.76791678935886</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.76310093047399</v>
+        <v>3.635023112932402</v>
       </c>
       <c r="E25">
-        <v>32.89442825646503</v>
+        <v>46.8311745452632</v>
       </c>
       <c r="F25">
-        <v>19.89031989593194</v>
+        <v>18.19907482866135</v>
       </c>
       <c r="G25">
-        <v>3.589211392549477</v>
+        <v>2.0193615973607</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.0956864988069</v>
+        <v>14.55777937854804</v>
       </c>
       <c r="M25">
-        <v>17.1887118311625</v>
+        <v>18.23468235695892</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.47924651002011</v>
+        <v>12.89887671227764</v>
       </c>
     </row>
   </sheetData>
